--- a/ExcelInDotNet2.0/TestData.xlsx
+++ b/ExcelInDotNet2.0/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ali_i\source\repos\ExcelInDotNet2.0\ExcelInDotNet2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBC23A7-991B-4981-8D7C-2AD29B732D02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F0F66-A827-4F22-BF39-B7E1769E3AE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10718" xr2:uid="{1F4AB3E4-9A6B-4892-992E-76C9BFBFBD92}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -97,7 +97,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,16 +141,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,88 +480,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7970B8B-7C26-43B5-BD8E-05F2DA26B38F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1002</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1003</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1004</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1005</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="I6" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
